--- a/data/西武鉄道.xlsx
+++ b/data/西武鉄道.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihiro\Desktop\研究室\研究\私鉄\西武鉄道\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fukushige\Desktop\git\station_data_visualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9923930B-E918-455A-8D47-AEDFE15AEAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10840" windowHeight="3520"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="142">
   <si>
     <t>本社所在地</t>
     <rPh sb="0" eb="2">
@@ -580,9 +589,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>野方駅整備(株)</t>
-  </si>
-  <si>
     <t>中野区野方6丁目3-3</t>
   </si>
   <si>
@@ -700,13 +706,21 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野方駅整備(株)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1072,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1204,6 +1218,9 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -1221,6 +1238,9 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -1238,6 +1258,9 @@
       <c r="C8" t="s">
         <v>39</v>
       </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -1255,6 +1278,9 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
@@ -1275,6 +1301,9 @@
       <c r="C10" t="s">
         <v>48</v>
       </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
@@ -1292,6 +1321,9 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
@@ -1309,6 +1341,9 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -1323,6 +1358,9 @@
       <c r="B13" t="s">
         <v>61</v>
       </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
       <c r="E13" t="s">
         <v>63</v>
       </c>
@@ -1340,6 +1378,12 @@
       <c r="C14" t="s">
         <v>68</v>
       </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
       <c r="F14" t="s">
         <v>66</v>
       </c>
@@ -1357,6 +1401,9 @@
       <c r="C15" t="s">
         <v>72</v>
       </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
       <c r="E15" t="s">
         <v>73</v>
       </c>
@@ -1371,6 +1418,9 @@
       <c r="B16" t="s">
         <v>75</v>
       </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
@@ -1388,6 +1438,9 @@
       <c r="C17" t="s">
         <v>82</v>
       </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
       <c r="E17" t="s">
         <v>81</v>
       </c>
@@ -1408,6 +1461,9 @@
       <c r="C18" t="s">
         <v>87</v>
       </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
       <c r="E18" t="s">
         <v>85</v>
       </c>
@@ -1425,6 +1481,9 @@
       <c r="B19" t="s">
         <v>90</v>
       </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
       <c r="E19" t="s">
         <v>92</v>
       </c>
@@ -1442,6 +1501,9 @@
       <c r="C20" t="s">
         <v>97</v>
       </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
       <c r="E20" t="s">
         <v>96</v>
       </c>
@@ -1459,6 +1521,9 @@
       <c r="C21" t="s">
         <v>106</v>
       </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
       <c r="E21" t="s">
         <v>101</v>
       </c>
@@ -1476,6 +1541,9 @@
       <c r="C22" t="s">
         <v>106</v>
       </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
       <c r="E22" t="s">
         <v>105</v>
       </c>
@@ -1485,50 +1553,50 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>111</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
         <v>114</v>
       </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
         <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
@@ -1540,15 +1608,15 @@
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
@@ -1557,81 +1625,93 @@
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
-        <v>123</v>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
         <v>124</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
         <v>125</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
         <v>128</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>132</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
         <v>133</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
         <v>137</v>
       </c>
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
